--- a/TestData/contact_info.xlsx
+++ b/TestData/contact_info.xlsx
@@ -8,24 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoro\PycharmProjects\appium_mail_master\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BF65AB-E543-4564-9335-5E0015120124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F169CE-8716-4B59-A675-026C4AD7E73B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,71 +90,298 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>123456@163.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>abc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456@q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456@.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> @qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc@.</t>
+    <t>a001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a002</t>
+  </si>
+  <si>
+    <t>a003</t>
+  </si>
+  <si>
+    <t>a004</t>
+  </si>
+  <si>
+    <t>a005</t>
+  </si>
+  <si>
+    <t>a006</t>
+  </si>
+  <si>
+    <t>a007</t>
+  </si>
+  <si>
+    <t>a008</t>
+  </si>
+  <si>
+    <t>a009</t>
+  </si>
+  <si>
+    <t>a010</t>
+  </si>
+  <si>
+    <t>bytedance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆市渝中区两路口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱地址描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只输入字母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @#￥%&amp;*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只输入特殊字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只输入数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12ab#$ cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入以上数据组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少@符号</t>
+  </si>
+  <si>
+    <t>email@163com</t>
+  </si>
+  <si>
+    <t>缺少黑点“.”</t>
+  </si>
+  <si>
+    <t>email@163.</t>
+  </si>
+  <si>
+    <t>缺少com、cn、net、hotmail等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email163@.com</t>
+  </si>
+  <si>
+    <t>email163.@com</t>
+  </si>
+  <si>
+    <t>email163.com@</t>
+  </si>
+  <si>
+    <t>a011</t>
+  </si>
+  <si>
+    <t>a012</t>
+  </si>
+  <si>
+    <t>a013</t>
+  </si>
+  <si>
+    <t>@符号位置不正确</t>
+  </si>
+  <si>
+    <t>黑点“.”位置不正确</t>
+  </si>
+  <si>
+    <t>email@.163com</t>
+  </si>
+  <si>
+    <t>email@163com.</t>
+  </si>
+  <si>
+    <t>a014</t>
+  </si>
+  <si>
+    <t>a015</t>
+  </si>
+  <si>
+    <t>a016</t>
+  </si>
+  <si>
+    <t>a017</t>
+  </si>
+  <si>
+    <t>a018</t>
+  </si>
+  <si>
+    <t>a019</t>
+  </si>
+  <si>
+    <t>a020</t>
+  </si>
+  <si>
+    <t>a021</t>
+  </si>
+  <si>
+    <t>abc001@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc002@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc003@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234568@127.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234569@128.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xhs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java工程师</t>
+  </si>
+  <si>
+    <t>销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试工程师</t>
+  </si>
+  <si>
+    <t>数据库工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京朝阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人添加测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致电</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +412,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -187,7 +449,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -195,18 +457,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -489,24 +787,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="3" max="3" width="19.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="9" width="9" style="1"/>
+    <col min="6" max="6" width="17.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.25" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="28.375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,61 +840,95 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1">
+        <v>13800000000</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1">
-        <v>123456</v>
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -599,92 +936,692 @@
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12345</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="7">
+        <v>138520000</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7">
+        <v>1368597545</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
+        <v>1865954545</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="7">
+        <v>15986524225</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="7">
+        <v>188556252</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7">
+        <v>1995262552</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{44A29DD0-6556-45E4-AD31-8809E5ED985E}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{470A4BF0-2AC1-4F81-AFB0-BEA86A999B28}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{EC15CCA3-E8E1-428A-BCC8-6B9380642D57}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{792281FF-9B06-49D7-85A1-4D9C8A2A1660}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{58D14D29-2341-46B2-878E-290876DAADAB}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{38FE8D96-D34C-4A14-9DBE-5AC4F4C84A94}"/>
+    <hyperlink ref="C18" r:id="rId2" xr:uid="{28DEE55E-65D3-4654-9849-C05AC03AFF44}"/>
+    <hyperlink ref="C19" r:id="rId3" xr:uid="{2C6EEBBA-DF91-4E78-AE3E-24E8C8336F21}"/>
+    <hyperlink ref="C23" r:id="rId4" xr:uid="{5CD68271-DB62-4F01-9A36-462BD5C89425}"/>
+    <hyperlink ref="C24" r:id="rId5" xr:uid="{DD9BABCA-9886-403C-BE11-B8E9EAFC3D1D}"/>
+    <hyperlink ref="C25" r:id="rId6" xr:uid="{25F77332-19FA-4768-8FF2-91F2D3782F68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C95FF4-01C8-47A0-90E2-FCBEB2DE0085}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>